--- a/final_results/DE_genes_summary_table.xlsx
+++ b/final_results/DE_genes_summary_table.xlsx
@@ -8,17 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qzhang/Documents/b_georgetown/Semester 5 Courses/BIOL 379-01 Bioinformatics/379code/RNAseq_notes/final_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD5B6C25-3EE7-5441-A0A0-A2D5C9F31217}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B401893-85F7-EB49-B739-9CE8E56D4093}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14680" yWindow="500" windowWidth="18880" windowHeight="20500" activeTab="1" xr2:uid="{00E090E5-4E20-AA45-B34E-841B119D18EB}"/>
+    <workbookView xWindow="14680" yWindow="500" windowWidth="18880" windowHeight="20500" xr2:uid="{00E090E5-4E20-AA45-B34E-841B119D18EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Joined" sheetId="2" r:id="rId1"/>
-    <sheet name="Correspondence check" sheetId="1" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="partial_from_gene_exp" localSheetId="1">'Correspondence check'!$A$1:$F$13</definedName>
-  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -28,25 +24,8 @@
 </workbook>
 </file>
 
-<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{AC3B4E1E-B17F-3046-8CA4-8C190E57B71F}" name="partial_from_gene_exp" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr sourceFile="/Users/qzhang/Documents/b_georgetown/Semester 5 Courses/BIOL 379-01 Bioinformatics/379code/local_file_archive_RNAseq/1116_cuffdiff_summary_table/partial_from_gene_exp.txt">
-      <textFields count="6">
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
-</connections>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
   <si>
     <t>XLOC_000810</t>
   </si>
@@ -124,45 +103,6 @@
   </si>
   <si>
     <t>CAALFM_CR09350CA</t>
-  </si>
-  <si>
-    <t>rna-XM_716353.2</t>
-  </si>
-  <si>
-    <t>rna-XM_715917.2</t>
-  </si>
-  <si>
-    <t>rna-XM_714404.1</t>
-  </si>
-  <si>
-    <t>rna-XM_714882.1</t>
-  </si>
-  <si>
-    <t>rna-XM_718104.1</t>
-  </si>
-  <si>
-    <t>rna-XM_708223.1</t>
-  </si>
-  <si>
-    <t>rna-XM_706462.1</t>
-  </si>
-  <si>
-    <t>rna-XM_710446.2</t>
-  </si>
-  <si>
-    <t>rna-XM_706317.1</t>
-  </si>
-  <si>
-    <t>rna-XM_715242.1</t>
-  </si>
-  <si>
-    <t>rna-XM_711365.1</t>
-  </si>
-  <si>
-    <t>rna-XM_711372.1</t>
-  </si>
-  <si>
-    <t>rna-XM_711371.1</t>
   </si>
   <si>
     <t>tuxedo_suite_id</t>
@@ -472,10 +412,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="partial_from_gene_exp" connectionId="1" xr16:uid="{0AD7CB42-1495-2549-A2F0-203E12176AE9}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -777,7 +713,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{415F1B30-6492-4F40-A1D5-11BA791F198B}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -798,37 +734,37 @@
   <sheetData>
     <row r="1" spans="1:11" ht="23" customHeight="1">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="E1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F1" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G1" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H1" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="I1" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="J1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="K1" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="49" customHeight="1">
@@ -836,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
@@ -854,16 +790,16 @@
         <v>2.4204199999999999E-2</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="49" customHeight="1">
@@ -871,7 +807,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>3</v>
@@ -889,16 +825,16 @@
         <v>2.4204199999999999E-2</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="49" customHeight="1">
@@ -906,7 +842,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -924,16 +860,16 @@
         <v>2.4204199999999999E-2</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="95" customHeight="1">
@@ -941,7 +877,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
@@ -959,16 +895,16 @@
         <v>2.4204199999999999E-2</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="137" customHeight="1">
@@ -976,7 +912,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>9</v>
@@ -994,16 +930,16 @@
         <v>2.4204199999999999E-2</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="116" customHeight="1">
@@ -1011,7 +947,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>11</v>
@@ -1029,16 +965,16 @@
         <v>2.4204199999999999E-2</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="49" customHeight="1">
@@ -1046,7 +982,7 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>13</v>
@@ -1064,16 +1000,16 @@
         <v>2.4204199999999999E-2</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="49" customHeight="1">
@@ -1081,7 +1017,7 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>15</v>
@@ -1099,16 +1035,16 @@
         <v>2.4204199999999999E-2</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="92" customHeight="1">
@@ -1116,7 +1052,7 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>17</v>
@@ -1134,16 +1070,16 @@
         <v>2.4204199999999999E-2</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="49" customHeight="1">
@@ -1151,7 +1087,7 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>19</v>
@@ -1169,16 +1105,16 @@
         <v>4.4684599999999998E-2</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="164" customHeight="1">
@@ -1186,7 +1122,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>21</v>
@@ -1204,16 +1140,16 @@
         <v>2.4204199999999999E-2</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="49" customHeight="1">
@@ -1221,7 +1157,7 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>23</v>
@@ -1239,16 +1175,16 @@
         <v>2.4204199999999999E-2</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="64" customHeight="1">
@@ -1256,7 +1192,7 @@
         <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>25</v>
@@ -1274,527 +1210,19 @@
         <v>2.4204199999999999E-2</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F7E340-A613-2141-BE95-298574DD3DE3}">
-  <dimension ref="A1:M13"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.1640625" customWidth="1"/>
-    <col min="9" max="9" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>625.14599999999996</v>
-      </c>
-      <c r="D1">
-        <v>3744.79</v>
-      </c>
-      <c r="E1">
-        <v>2.5826199999999999</v>
-      </c>
-      <c r="F1">
-        <v>2.4204199999999999E-2</v>
-      </c>
-      <c r="H1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1">
-        <f>C11</f>
-        <v>14.397</v>
-      </c>
-      <c r="M1" t="str">
-        <f>IF(B1=I1,"Match","Nomatch")</f>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>12.683400000000001</v>
-      </c>
-      <c r="D2">
-        <v>281.529</v>
-      </c>
-      <c r="E2">
-        <v>4.4722799999999996</v>
-      </c>
-      <c r="F2">
-        <v>2.4204199999999999E-2</v>
-      </c>
-      <c r="H2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" t="str">
-        <f t="shared" ref="L2:L13" si="0">IF(A2=H2,"Match","Nomatch")</f>
-        <v>Match</v>
-      </c>
-      <c r="M2" t="str">
-        <f t="shared" ref="M2:M13" si="1">IF(B2=I2,"Match","Nomatch")</f>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>27.439499999999999</v>
-      </c>
-      <c r="D3">
-        <v>222.75299999999999</v>
-      </c>
-      <c r="E3">
-        <v>3.0211199999999998</v>
-      </c>
-      <c r="F3">
-        <v>2.4204199999999999E-2</v>
-      </c>
-      <c r="H3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" t="str">
-        <f t="shared" si="0"/>
-        <v>Match</v>
-      </c>
-      <c r="M3" t="str">
-        <f t="shared" si="1"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>18.2057</v>
-      </c>
-      <c r="D4">
-        <v>489.726</v>
-      </c>
-      <c r="E4">
-        <v>4.7495099999999999</v>
-      </c>
-      <c r="F4">
-        <v>2.4204199999999999E-2</v>
-      </c>
-      <c r="H4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" t="str">
-        <f t="shared" si="0"/>
-        <v>Match</v>
-      </c>
-      <c r="M4" t="str">
-        <f t="shared" si="1"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
-        <v>6.1051299999999999</v>
-      </c>
-      <c r="D5">
-        <v>23755.599999999999</v>
-      </c>
-      <c r="E5">
-        <v>11.926</v>
-      </c>
-      <c r="F5">
-        <v>2.4204199999999999E-2</v>
-      </c>
-      <c r="H5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" t="str">
-        <f t="shared" si="0"/>
-        <v>Match</v>
-      </c>
-      <c r="M5" t="str">
-        <f t="shared" si="1"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6">
-        <v>26.335100000000001</v>
-      </c>
-      <c r="D6">
-        <v>146.691</v>
-      </c>
-      <c r="E6">
-        <v>2.4777200000000001</v>
-      </c>
-      <c r="F6">
-        <v>2.4204199999999999E-2</v>
-      </c>
-      <c r="H6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" t="s">
-        <v>31</v>
-      </c>
-      <c r="L6" t="str">
-        <f t="shared" si="0"/>
-        <v>Match</v>
-      </c>
-      <c r="M6" t="str">
-        <f t="shared" si="1"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7">
-        <v>19.7682</v>
-      </c>
-      <c r="D7">
-        <v>797.15300000000002</v>
-      </c>
-      <c r="E7">
-        <v>5.3336100000000002</v>
-      </c>
-      <c r="F7">
-        <v>2.4204199999999999E-2</v>
-      </c>
-      <c r="H7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L7" t="str">
-        <f t="shared" si="0"/>
-        <v>Match</v>
-      </c>
-      <c r="M7" t="str">
-        <f t="shared" si="1"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8">
-        <v>57.555199999999999</v>
-      </c>
-      <c r="D8">
-        <v>197.58</v>
-      </c>
-      <c r="E8">
-        <v>1.77942</v>
-      </c>
-      <c r="F8">
-        <v>2.4204199999999999E-2</v>
-      </c>
-      <c r="H8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" t="s">
-        <v>33</v>
-      </c>
-      <c r="L8" t="str">
-        <f t="shared" si="0"/>
-        <v>Match</v>
-      </c>
-      <c r="M8" t="str">
-        <f t="shared" si="1"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9">
-        <v>100.4</v>
-      </c>
-      <c r="D9">
-        <v>1523.07</v>
-      </c>
-      <c r="E9">
-        <v>3.9231500000000001</v>
-      </c>
-      <c r="F9">
-        <v>2.4204199999999999E-2</v>
-      </c>
-      <c r="H9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" t="s">
-        <v>34</v>
-      </c>
-      <c r="L9" t="str">
-        <f t="shared" si="0"/>
-        <v>Match</v>
-      </c>
-      <c r="M9" t="str">
-        <f t="shared" si="1"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10">
-        <v>22.8126</v>
-      </c>
-      <c r="D10">
-        <v>69.100899999999996</v>
-      </c>
-      <c r="E10">
-        <v>1.5988800000000001</v>
-      </c>
-      <c r="F10">
-        <v>4.4684599999999998E-2</v>
-      </c>
-      <c r="H10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" t="s">
-        <v>35</v>
-      </c>
-      <c r="L10" t="str">
-        <f t="shared" si="0"/>
-        <v>Match</v>
-      </c>
-      <c r="M10" t="str">
-        <f t="shared" si="1"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11">
-        <v>14.397</v>
-      </c>
-      <c r="D11">
-        <v>11687.5</v>
-      </c>
-      <c r="E11">
-        <v>9.6649799999999999</v>
-      </c>
-      <c r="F11">
-        <v>2.4204199999999999E-2</v>
-      </c>
-      <c r="H11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" t="s">
-        <v>21</v>
-      </c>
-      <c r="J11" t="s">
-        <v>36</v>
-      </c>
-      <c r="L11" t="str">
-        <f t="shared" si="0"/>
-        <v>Match</v>
-      </c>
-      <c r="M11" t="str">
-        <f t="shared" si="1"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12">
-        <v>8.2367699999999999</v>
-      </c>
-      <c r="D12">
-        <v>666.86699999999996</v>
-      </c>
-      <c r="E12">
-        <v>6.3391799999999998</v>
-      </c>
-      <c r="F12">
-        <v>2.4204199999999999E-2</v>
-      </c>
-      <c r="H12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" t="s">
-        <v>23</v>
-      </c>
-      <c r="J12" t="s">
-        <v>37</v>
-      </c>
-      <c r="L12" t="str">
-        <f t="shared" si="0"/>
-        <v>Match</v>
-      </c>
-      <c r="M12" t="str">
-        <f t="shared" si="1"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13">
-        <v>0.85882000000000003</v>
-      </c>
-      <c r="D13">
-        <v>296.45999999999998</v>
-      </c>
-      <c r="E13">
-        <v>8.43126</v>
-      </c>
-      <c r="F13">
-        <v>2.4204199999999999E-2</v>
-      </c>
-      <c r="H13" t="s">
-        <v>24</v>
-      </c>
-      <c r="I13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J13" t="s">
-        <v>38</v>
-      </c>
-      <c r="L13" t="str">
-        <f t="shared" si="0"/>
-        <v>Match</v>
-      </c>
-      <c r="M13" t="str">
-        <f t="shared" si="1"/>
-        <v>Match</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="A1:F13">
-    <sortCondition ref="A1:A13"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/final_results/DE_genes_summary_table.xlsx
+++ b/final_results/DE_genes_summary_table.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qzhang/Documents/b_georgetown/Semester 5 Courses/BIOL 379-01 Bioinformatics/379code/RNAseq_notes/final_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B401893-85F7-EB49-B739-9CE8E56D4093}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660F3AB2-304A-6144-ADFA-A1749D6DF8D7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14680" yWindow="500" windowWidth="18880" windowHeight="20500" xr2:uid="{00E090E5-4E20-AA45-B34E-841B119D18EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Joined" sheetId="2" r:id="rId1"/>
+    <sheet name="GO enrichment analysis IDs" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="102">
   <si>
     <t>XLOC_000810</t>
   </si>
@@ -713,8 +714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{415F1B30-6492-4F40-A1D5-11BA791F198B}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="I9" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1225,4 +1226,60 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C697FED7-7748-BF45-95A4-B6AA85149CF5}">
+  <dimension ref="A1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/final_results/DE_genes_summary_table.xlsx
+++ b/final_results/DE_genes_summary_table.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qzhang/Documents/b_georgetown/Semester 5 Courses/BIOL 379-01 Bioinformatics/379code/RNAseq_notes/final_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660F3AB2-304A-6144-ADFA-A1749D6DF8D7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9466CF0C-3C51-D04F-AD88-4E3AF9F94168}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14680" yWindow="500" windowWidth="18880" windowHeight="20500" xr2:uid="{00E090E5-4E20-AA45-B34E-841B119D18EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Joined" sheetId="2" r:id="rId1"/>
-    <sheet name="GO enrichment analysis IDs" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
   <si>
     <t>XLOC_000810</t>
   </si>
@@ -1226,60 +1225,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C697FED7-7748-BF45-95A4-B6AA85149CF5}">
-  <dimension ref="A1:M1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>